--- a/Database/Pianezza/SUPBDATA.xlsx
+++ b/Database/Pianezza/SUPBDATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fr2342\Documents\Art3misScript\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fr2342\Documents\Artemis\Database\Pianezza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B7F1C1-A609-470F-9877-8EF89463C8CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B39076-53A4-4B00-A53B-C7B069AE836A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E32AE2D8-9222-4D8E-9F2D-7513D4C62F7A}"/>
   </bookViews>
@@ -25,7 +25,8 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Types!$A$1:$G$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RoughFace!$A$1:$A$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Types!$A$1:$H$193</definedName>
     <definedName name="ColShift">[1]Calculations!$B$28:$C$31</definedName>
     <definedName name="ID_MEB25">[1]Waviness!$C$16:$C$25</definedName>
     <definedName name="IR_GeoData">[1]BrgData!$A$2:$I$466</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="550">
   <si>
     <t>ISO</t>
   </si>
@@ -1310,25 +1311,400 @@
     <t>Channel</t>
   </si>
   <si>
-    <t>Channel 2</t>
+    <t>Vbe</t>
   </si>
   <si>
-    <t>Channel 3</t>
+    <t>IR-719/8 CE</t>
   </si>
   <si>
-    <t>Channel 4</t>
+    <t>IR-719/9 CE</t>
   </si>
   <si>
-    <t>Channel 4B</t>
+    <t>IR-71900 CE</t>
   </si>
   <si>
-    <t>Channel 6</t>
+    <t>IR-71901 CE</t>
   </si>
   <si>
-    <t>Channel 7</t>
+    <t>IR-71902 CE</t>
   </si>
   <si>
-    <t>Vbe</t>
+    <t>IR-71903 CE</t>
+  </si>
+  <si>
+    <t>IR-71904 CE</t>
+  </si>
+  <si>
+    <t>IR-71905 CE</t>
+  </si>
+  <si>
+    <t>IR-71906 CE</t>
+  </si>
+  <si>
+    <t>IR-71907 CE</t>
+  </si>
+  <si>
+    <t>IR-71908 CE</t>
+  </si>
+  <si>
+    <t>IR-71909 CE</t>
+  </si>
+  <si>
+    <t>IR-71910 CE</t>
+  </si>
+  <si>
+    <t>IR-71911 CE</t>
+  </si>
+  <si>
+    <t>IR-71912 CE</t>
+  </si>
+  <si>
+    <t>IR-71913 CE</t>
+  </si>
+  <si>
+    <t>IR-71914 CE</t>
+  </si>
+  <si>
+    <t>IR-71915 CE</t>
+  </si>
+  <si>
+    <t>IR-71916 CE</t>
+  </si>
+  <si>
+    <t>IR-71917 CE</t>
+  </si>
+  <si>
+    <t>IR-71918 CE</t>
+  </si>
+  <si>
+    <t>IR-71919 CE</t>
+  </si>
+  <si>
+    <t>IR-71920 CE</t>
+  </si>
+  <si>
+    <t>IR-71922 CE</t>
+  </si>
+  <si>
+    <t>IR-71924 CE</t>
+  </si>
+  <si>
+    <t>IR-706 CE</t>
+  </si>
+  <si>
+    <t>IR-707 CE</t>
+  </si>
+  <si>
+    <t>IR-708 CE</t>
+  </si>
+  <si>
+    <t>IR-709 CE</t>
+  </si>
+  <si>
+    <t>IR-7000 CE</t>
+  </si>
+  <si>
+    <t>IR-7001 CE</t>
+  </si>
+  <si>
+    <t>IR-7002 CE</t>
+  </si>
+  <si>
+    <t>IR-7003 CE</t>
+  </si>
+  <si>
+    <t>IR-7004 CE</t>
+  </si>
+  <si>
+    <t>IR-7005 CE</t>
+  </si>
+  <si>
+    <t>IR-7006 CE</t>
+  </si>
+  <si>
+    <t>IR-7007 CE</t>
+  </si>
+  <si>
+    <t>IR-7008 CE</t>
+  </si>
+  <si>
+    <t>IR-7009 CE</t>
+  </si>
+  <si>
+    <t>IR-7010 CE</t>
+  </si>
+  <si>
+    <t>IR-7011 CE</t>
+  </si>
+  <si>
+    <t>IR-7012 CE</t>
+  </si>
+  <si>
+    <t>IR-7013 CE</t>
+  </si>
+  <si>
+    <t>IR-7014 CE</t>
+  </si>
+  <si>
+    <t>IR-7015 CE</t>
+  </si>
+  <si>
+    <t>IR-7016 CE</t>
+  </si>
+  <si>
+    <t>IR-7017 CE</t>
+  </si>
+  <si>
+    <t>IR-7018 CE</t>
+  </si>
+  <si>
+    <t>IR-7019 CE</t>
+  </si>
+  <si>
+    <t>IR-7020 CE</t>
+  </si>
+  <si>
+    <t>IR-7022 CE</t>
+  </si>
+  <si>
+    <t>IR-7024 CE</t>
+  </si>
+  <si>
+    <t>IR-7026 CE</t>
+  </si>
+  <si>
+    <t>IR-7028 CE</t>
+  </si>
+  <si>
+    <t>IR-71903 CB</t>
+  </si>
+  <si>
+    <t>IR-71906 CB</t>
+  </si>
+  <si>
+    <t>IR-71907 CB</t>
+  </si>
+  <si>
+    <t>IR-71908 CB</t>
+  </si>
+  <si>
+    <t>IR-71909 CB</t>
+  </si>
+  <si>
+    <t>IR-71910 CB</t>
+  </si>
+  <si>
+    <t>IR-71911 CB</t>
+  </si>
+  <si>
+    <t>IR-71912 CB</t>
+  </si>
+  <si>
+    <t>IR-71913 CB</t>
+  </si>
+  <si>
+    <t>IR-71914 CB</t>
+  </si>
+  <si>
+    <t>IR-71915 CB</t>
+  </si>
+  <si>
+    <t>IR-71916 CB</t>
+  </si>
+  <si>
+    <t>IR-71917 CB</t>
+  </si>
+  <si>
+    <t>IR-71918 CB</t>
+  </si>
+  <si>
+    <t>IR-71919 CB</t>
+  </si>
+  <si>
+    <t>IR-71920 CB</t>
+  </si>
+  <si>
+    <t>IR-71922 CB</t>
+  </si>
+  <si>
+    <t>IR-71924 CB</t>
+  </si>
+  <si>
+    <t>IR-7006 CB</t>
+  </si>
+  <si>
+    <t>IR-7007 CB</t>
+  </si>
+  <si>
+    <t>IR-7008 CB</t>
+  </si>
+  <si>
+    <t>IR-7009 CB</t>
+  </si>
+  <si>
+    <t>IR-7010 CB</t>
+  </si>
+  <si>
+    <t>IR-7011 CB</t>
+  </si>
+  <si>
+    <t>IR-7012 CB</t>
+  </si>
+  <si>
+    <t>IR-7013 CB</t>
+  </si>
+  <si>
+    <t>IR-7014 CB</t>
+  </si>
+  <si>
+    <t>IR-7015 CB</t>
+  </si>
+  <si>
+    <t>IR-7016 CB</t>
+  </si>
+  <si>
+    <t>IR-7017 CB</t>
+  </si>
+  <si>
+    <t>IR-7018 CB</t>
+  </si>
+  <si>
+    <t>IR-7019 CB</t>
+  </si>
+  <si>
+    <t>IR-7020 CB</t>
+  </si>
+  <si>
+    <t>IR-7022 CB</t>
+  </si>
+  <si>
+    <t>IR-7024 CB</t>
+  </si>
+  <si>
+    <t>IR-71800 CD</t>
+  </si>
+  <si>
+    <t>IR-71801 CD</t>
+  </si>
+  <si>
+    <t>IR-71802 CD</t>
+  </si>
+  <si>
+    <t>IR-71803 CD</t>
+  </si>
+  <si>
+    <t>IR-71900 CD</t>
+  </si>
+  <si>
+    <t>IR-71901 CD</t>
+  </si>
+  <si>
+    <t>IR-71902 CD</t>
+  </si>
+  <si>
+    <t>IR-71903 CD</t>
+  </si>
+  <si>
+    <t>IR-706 CD</t>
+  </si>
+  <si>
+    <t>IR-707 CD</t>
+  </si>
+  <si>
+    <t>IR-708 CD</t>
+  </si>
+  <si>
+    <t>IR-709 CD</t>
+  </si>
+  <si>
+    <t>IR-7000 CD</t>
+  </si>
+  <si>
+    <t>IR-7001 CD</t>
+  </si>
+  <si>
+    <t>IR-7002 CD</t>
+  </si>
+  <si>
+    <t>IR-7003 CD</t>
+  </si>
+  <si>
+    <t>IR-7004 CD</t>
+  </si>
+  <si>
+    <t>IR-7005 CD</t>
+  </si>
+  <si>
+    <t>IR-7006 CD</t>
+  </si>
+  <si>
+    <t>IR-7007 CD</t>
+  </si>
+  <si>
+    <t>IR-7008 CD</t>
+  </si>
+  <si>
+    <t>IR-7009 CD</t>
+  </si>
+  <si>
+    <t>IR-7010 CD</t>
+  </si>
+  <si>
+    <t>IR-7011 CD</t>
+  </si>
+  <si>
+    <t>IR-7012 CD</t>
+  </si>
+  <si>
+    <t>IR-7013 CD</t>
+  </si>
+  <si>
+    <t>IR-7014 CD</t>
+  </si>
+  <si>
+    <t>IR-7015 CD</t>
+  </si>
+  <si>
+    <t>IR-7016 CD</t>
+  </si>
+  <si>
+    <t>IR-7017 CD</t>
+  </si>
+  <si>
+    <t>IR-7018 CD</t>
+  </si>
+  <si>
+    <t>IR-7019 CD</t>
+  </si>
+  <si>
+    <t>IR-7020 CD</t>
+  </si>
+  <si>
+    <t>IR-7021 CD</t>
+  </si>
+  <si>
+    <t>IR-727 CD</t>
+  </si>
+  <si>
+    <t>IR-728 CD</t>
+  </si>
+  <si>
+    <t>IR-729 CD</t>
+  </si>
+  <si>
+    <t>IR-7200 CD</t>
+  </si>
+  <si>
+    <t>IR-7201 CD</t>
+  </si>
+  <si>
+    <t>IR-7202 CD</t>
+  </si>
+  <si>
+    <t>IR-7203 CD</t>
+  </si>
+  <si>
+    <t>TipoOR</t>
   </si>
 </sst>
 </file>
@@ -15939,4414 +16315,3383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B96BB07-E980-4329-8313-BBC3EA132EC5}">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I178" sqref="I178"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2">
+        <v>10.324999999999999</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C3">
+        <v>11.324999999999999</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4">
+        <v>12.824999999999999</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5">
+        <v>14.824999999999999</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6">
+        <v>17.530999999999999</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7">
+        <v>19.530999999999999</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8">
+        <v>23.738</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9">
+        <v>28.738</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C10">
+        <v>33.738</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11">
+        <v>39.444000000000003</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C12">
+        <v>43.95</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13">
+        <v>50.15</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C14">
+        <v>53.856000000000002</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C15">
+        <v>59.561999999999998</v>
+      </c>
+      <c r="D15">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C16">
+        <v>64.561999999999998</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>434</v>
+      </c>
+      <c r="C17">
+        <v>69.561999999999998</v>
+      </c>
+      <c r="D17">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>435</v>
+      </c>
+      <c r="C18">
+        <v>75.474999999999994</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>436</v>
+      </c>
+      <c r="C19">
+        <v>80.474999999999994</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C20">
+        <v>85.474999999999994</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C21">
+        <v>91.388000000000005</v>
+      </c>
+      <c r="D21">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>439</v>
+      </c>
+      <c r="C22">
+        <v>96.388000000000005</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23">
+        <v>101.38800000000001</v>
+      </c>
+      <c r="D23">
+        <v>95</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>441</v>
+      </c>
+      <c r="C24">
+        <v>107.3</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25">
+        <v>117.3</v>
+      </c>
+      <c r="D25">
+        <v>110</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C26">
+        <v>128.21199999999999</v>
+      </c>
+      <c r="D26">
+        <v>120</v>
+      </c>
+      <c r="E26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>444</v>
+      </c>
+      <c r="C27">
+        <v>8.3249999999999993</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>445</v>
+      </c>
+      <c r="C28">
+        <v>9.4280000000000008</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C29">
+        <v>11.031000000000001</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>447</v>
+      </c>
+      <c r="C30">
+        <v>12.531000000000001</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>448</v>
+      </c>
+      <c r="C31">
+        <v>14.031000000000001</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>449</v>
+      </c>
+      <c r="C32">
+        <v>16.030999999999999</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>450</v>
+      </c>
+      <c r="C33">
+        <v>18.937999999999999</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>451</v>
+      </c>
+      <c r="C34">
+        <v>20.443999999999999</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>452</v>
+      </c>
+      <c r="C35">
+        <v>24.05</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>453</v>
+      </c>
+      <c r="C36">
+        <v>29.05</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>454</v>
+      </c>
+      <c r="C37">
+        <v>35.65</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>455</v>
+      </c>
+      <c r="C38">
+        <v>40.856000000000002</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>456</v>
+      </c>
+      <c r="C39">
+        <v>46.856000000000002</v>
+      </c>
+      <c r="D39">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>457</v>
+      </c>
+      <c r="C40">
+        <v>52.856000000000002</v>
+      </c>
+      <c r="D40">
+        <v>45</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>458</v>
+      </c>
+      <c r="C41">
+        <v>57.061999999999998</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>459</v>
+      </c>
+      <c r="C42">
+        <v>64.561999999999998</v>
+      </c>
+      <c r="D42">
+        <v>55</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>460</v>
+      </c>
+      <c r="C43">
+        <v>69.561999999999998</v>
+      </c>
+      <c r="D43">
+        <v>60</v>
+      </c>
+      <c r="E43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C44">
+        <v>73.769000000000005</v>
+      </c>
+      <c r="D44">
+        <v>65</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>462</v>
+      </c>
+      <c r="C45">
+        <v>80.474999999999994</v>
+      </c>
+      <c r="D45">
+        <v>70</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>463</v>
+      </c>
+      <c r="C46">
+        <v>85.474999999999994</v>
+      </c>
+      <c r="D46">
+        <v>75</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>464</v>
+      </c>
+      <c r="C47">
+        <v>91.388000000000005</v>
+      </c>
+      <c r="D47">
+        <v>80</v>
+      </c>
+      <c r="E47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>465</v>
+      </c>
+      <c r="C48">
+        <v>96.388000000000005</v>
+      </c>
+      <c r="D48">
+        <v>85</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>466</v>
+      </c>
+      <c r="C49">
+        <v>103.88800000000001</v>
+      </c>
+      <c r="D49">
+        <v>90</v>
+      </c>
+      <c r="E49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>467</v>
+      </c>
+      <c r="C50">
+        <v>107.3</v>
+      </c>
+      <c r="D50">
+        <v>95</v>
+      </c>
+      <c r="E50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>468</v>
+      </c>
+      <c r="C51">
+        <v>112.3</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>469</v>
+      </c>
+      <c r="C52">
+        <v>127.3</v>
+      </c>
+      <c r="D52">
+        <v>110</v>
+      </c>
+      <c r="E52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>470</v>
+      </c>
+      <c r="C53">
+        <v>135.71199999999999</v>
+      </c>
+      <c r="D53">
+        <v>120</v>
+      </c>
+      <c r="E53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>471</v>
+      </c>
+      <c r="C54">
+        <v>149.125</v>
+      </c>
+      <c r="D54">
+        <v>130</v>
+      </c>
+      <c r="E54">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>472</v>
+      </c>
+      <c r="C55">
+        <v>159.125</v>
+      </c>
+      <c r="D55">
+        <v>140</v>
+      </c>
+      <c r="E55">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>473</v>
+      </c>
+      <c r="C56">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="D56">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>474</v>
+      </c>
+      <c r="C57">
+        <v>34.530999999999999</v>
+      </c>
+      <c r="D57">
+        <v>30</v>
+      </c>
+      <c r="E57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>475</v>
+      </c>
+      <c r="C58">
+        <v>41.030999999999999</v>
+      </c>
+      <c r="D58">
+        <v>35</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>476</v>
+      </c>
+      <c r="C59">
+        <v>47.030999999999999</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>477</v>
+      </c>
+      <c r="C60">
+        <v>51.738</v>
+      </c>
+      <c r="D60">
+        <v>45</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>478</v>
+      </c>
+      <c r="C61">
+        <v>56.238</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>479</v>
+      </c>
+      <c r="C62">
+        <v>61.944000000000003</v>
+      </c>
+      <c r="D62">
+        <v>55</v>
+      </c>
+      <c r="E62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>480</v>
+      </c>
+      <c r="C63">
+        <v>66.944000000000003</v>
+      </c>
+      <c r="D63">
+        <v>60</v>
+      </c>
+      <c r="E63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>481</v>
+      </c>
+      <c r="C64">
+        <v>71.944000000000003</v>
+      </c>
+      <c r="D64">
+        <v>65</v>
+      </c>
+      <c r="E64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>482</v>
+      </c>
+      <c r="C65">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="D65">
+        <v>70</v>
+      </c>
+      <c r="E65">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>483</v>
+      </c>
+      <c r="C66">
+        <v>83.65</v>
+      </c>
+      <c r="D66">
+        <v>75</v>
+      </c>
+      <c r="E66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>484</v>
+      </c>
+      <c r="C67">
+        <v>88.253</v>
+      </c>
+      <c r="D67">
+        <v>80</v>
+      </c>
+      <c r="E67">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>485</v>
+      </c>
+      <c r="C68">
+        <v>95.753</v>
+      </c>
+      <c r="D68">
+        <v>85</v>
+      </c>
+      <c r="E68">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>486</v>
+      </c>
+      <c r="C69">
+        <v>100.35599999999999</v>
+      </c>
+      <c r="D69">
+        <v>90</v>
+      </c>
+      <c r="E69">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>487</v>
+      </c>
+      <c r="C70">
+        <v>105.35599999999999</v>
+      </c>
+      <c r="D70">
+        <v>95</v>
+      </c>
+      <c r="E70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>488</v>
+      </c>
+      <c r="C71">
+        <v>112.062</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+      <c r="E71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>489</v>
+      </c>
+      <c r="C72">
+        <v>121.26900000000001</v>
+      </c>
+      <c r="D72">
+        <v>110</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>490</v>
+      </c>
+      <c r="C73">
+        <v>133.76900000000001</v>
+      </c>
+      <c r="D73">
+        <v>120</v>
+      </c>
+      <c r="E73">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>491</v>
+      </c>
+      <c r="C74">
+        <v>37.515999999999998</v>
+      </c>
+      <c r="D74">
+        <v>30</v>
+      </c>
+      <c r="E74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>492</v>
+      </c>
+      <c r="C75">
+        <v>43.716000000000001</v>
+      </c>
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>493</v>
+      </c>
+      <c r="C76">
+        <v>49.216000000000001</v>
+      </c>
+      <c r="D76">
+        <v>40</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>494</v>
+      </c>
+      <c r="C77">
+        <v>54.415999999999997</v>
+      </c>
+      <c r="D77">
+        <v>45</v>
+      </c>
+      <c r="E77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>495</v>
+      </c>
+      <c r="C78">
+        <v>59.015999999999998</v>
+      </c>
+      <c r="D78">
+        <v>50</v>
+      </c>
+      <c r="E78">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>496</v>
+      </c>
+      <c r="C79">
+        <v>65.701999999999998</v>
+      </c>
+      <c r="D79">
+        <v>55</v>
+      </c>
+      <c r="E79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>497</v>
+      </c>
+      <c r="C80">
+        <v>70.721000000000004</v>
+      </c>
+      <c r="D80">
+        <v>60</v>
+      </c>
+      <c r="E80">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>498</v>
+      </c>
+      <c r="C81">
+        <v>75.322000000000003</v>
+      </c>
+      <c r="D81">
+        <v>65</v>
+      </c>
+      <c r="E81">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>499</v>
+      </c>
+      <c r="C82">
+        <v>82.022999999999996</v>
+      </c>
+      <c r="D82">
+        <v>70</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>500</v>
+      </c>
+      <c r="C83">
+        <v>87.024000000000001</v>
+      </c>
+      <c r="D83">
+        <v>75</v>
+      </c>
+      <c r="E83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>501</v>
+      </c>
+      <c r="C84">
+        <v>92.929000000000002</v>
+      </c>
+      <c r="D84">
+        <v>80</v>
+      </c>
+      <c r="E84">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>502</v>
+      </c>
+      <c r="C85">
+        <v>97.929000000000002</v>
+      </c>
+      <c r="D85">
+        <v>85</v>
+      </c>
+      <c r="E85">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>503</v>
+      </c>
+      <c r="C86">
+        <v>104.63200000000001</v>
+      </c>
+      <c r="D86">
+        <v>90</v>
+      </c>
+      <c r="E86">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>504</v>
+      </c>
+      <c r="C87">
+        <v>109.63200000000001</v>
+      </c>
+      <c r="D87">
+        <v>95</v>
+      </c>
+      <c r="E87">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>505</v>
+      </c>
+      <c r="C88">
+        <v>114.63200000000001</v>
+      </c>
+      <c r="D88">
+        <v>100</v>
+      </c>
+      <c r="E88">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>506</v>
+      </c>
+      <c r="C89">
+        <v>128.83500000000001</v>
+      </c>
+      <c r="D89">
+        <v>110</v>
+      </c>
+      <c r="E89">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>507</v>
+      </c>
+      <c r="C90">
+        <v>138.83500000000001</v>
+      </c>
+      <c r="D90">
+        <v>120</v>
+      </c>
+      <c r="E90">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>508</v>
+      </c>
+      <c r="C91">
+        <v>12.119</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>509</v>
+      </c>
+      <c r="C92">
+        <v>14.119</v>
+      </c>
+      <c r="D92">
+        <v>12</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>510</v>
+      </c>
+      <c r="C93">
+        <v>17.119</v>
+      </c>
+      <c r="D93">
+        <v>15</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>511</v>
+      </c>
+      <c r="C94">
+        <v>19.119</v>
+      </c>
+      <c r="D94">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f t="shared" ref="A95:A119" si="0">"IR-"&amp;71800+C95/5&amp;" CD"</f>
+        <v>IR-71804.565 CD</v>
+      </c>
+      <c r="C95">
+        <v>22.824999999999999</v>
+      </c>
+      <c r="D95">
+        <v>20</v>
+      </c>
+      <c r="E95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71805.565 CD</v>
+      </c>
+      <c r="C96">
+        <v>27.824999999999999</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ref="D96:D109" si="1">D95+5</f>
+        <v>25</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71806.565 CD</v>
+      </c>
+      <c r="C97">
+        <v>32.825000000000003</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="E97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71807.565 CD</v>
+      </c>
+      <c r="C98">
+        <v>37.825000000000003</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71808.565 CD</v>
+      </c>
+      <c r="C99">
+        <v>42.825000000000003</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71809.665 CD</v>
+      </c>
+      <c r="C100">
+        <v>48.325000000000003</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71810.7062 CD</v>
+      </c>
+      <c r="C101">
+        <v>53.530999999999999</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71811.7476 CD</v>
+      </c>
+      <c r="C102">
+        <v>58.738</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="E102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71812.6888 CD</v>
+      </c>
+      <c r="C103">
+        <v>63.444000000000003</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71813.8888 CD</v>
+      </c>
+      <c r="C104">
+        <v>69.444000000000003</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71814.8888 CD</v>
+      </c>
+      <c r="C105">
+        <v>74.444000000000003</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71815.8888 CD</v>
+      </c>
+      <c r="C106">
+        <v>79.444000000000003</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71816.8888 CD</v>
+      </c>
+      <c r="C107">
+        <v>84.444000000000003</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71818.0712 CD</v>
+      </c>
+      <c r="C108">
+        <v>90.355999999999995</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E108">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71819.0712 CD</v>
+      </c>
+      <c r="C109">
+        <v>95.355999999999995</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71820.0712 CD</v>
+      </c>
+      <c r="C110">
+        <v>100.35599999999999</v>
+      </c>
+      <c r="D110">
+        <v>95</v>
+      </c>
+      <c r="E110">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71821.0712 CD</v>
+      </c>
+      <c r="C111">
+        <v>105.35599999999999</v>
+      </c>
+      <c r="D111">
+        <v>100</v>
+      </c>
+      <c r="E111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71822.0712 CD</v>
+      </c>
+      <c r="C112">
+        <v>110.35599999999999</v>
+      </c>
+      <c r="D112">
+        <v>105</v>
+      </c>
+      <c r="E112">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71823.2538 CD</v>
+      </c>
+      <c r="C113">
+        <v>116.26900000000001</v>
+      </c>
+      <c r="D113">
+        <v>110</v>
+      </c>
+      <c r="E113">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71825.2538 CD</v>
+      </c>
+      <c r="C114">
+        <v>126.26900000000001</v>
+      </c>
+      <c r="D114">
+        <v>120</v>
+      </c>
+      <c r="E114">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71827.595 CD</v>
+      </c>
+      <c r="C115">
+        <v>137.97499999999999</v>
+      </c>
+      <c r="D115">
+        <v>130</v>
+      </c>
+      <c r="E115">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71829.4362 CD</v>
+      </c>
+      <c r="C116">
+        <v>147.18100000000001</v>
+      </c>
+      <c r="D116">
+        <v>140</v>
+      </c>
+      <c r="E116">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71831.7776 CD</v>
+      </c>
+      <c r="C117">
+        <v>158.88800000000001</v>
+      </c>
+      <c r="D117">
+        <v>150</v>
+      </c>
+      <c r="E117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71833.7776 CD</v>
+      </c>
+      <c r="C118">
+        <v>168.88800000000001</v>
+      </c>
+      <c r="D118">
+        <v>160</v>
+      </c>
+      <c r="E118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f t="shared" si="0"/>
+        <v>IR-71837.96 CD</v>
+      </c>
+      <c r="C119">
+        <v>189.8</v>
+      </c>
+      <c r="D119">
+        <v>180</v>
+      </c>
+      <c r="E119">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>512</v>
+      </c>
+      <c r="C120">
+        <v>12.817</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>7200</v>
-      </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>513</v>
+      </c>
+      <c r="C121">
+        <v>14.817</v>
+      </c>
+      <c r="D121">
+        <v>12</v>
+      </c>
+      <c r="E121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>514</v>
+      </c>
+      <c r="C122">
+        <v>17.32</v>
+      </c>
+      <c r="D122">
+        <v>15</v>
+      </c>
+      <c r="E122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>515</v>
+      </c>
+      <c r="C123">
+        <v>19.32</v>
+      </c>
+      <c r="D123">
+        <v>17</v>
+      </c>
+      <c r="E123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f t="shared" ref="A124:A159" si="2">"IR-"&amp;71900+C124/5&amp;" CD"</f>
+        <v>IR-71904.745 CD</v>
+      </c>
+      <c r="C124">
+        <v>23.725000000000001</v>
+      </c>
+      <c r="D124">
+        <v>20</v>
+      </c>
+      <c r="E124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71905.745 CD</v>
+      </c>
+      <c r="C125">
+        <v>28.725000000000001</v>
+      </c>
+      <c r="D125">
+        <v>25</v>
+      </c>
+      <c r="E125">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71906.745 CD</v>
+      </c>
+      <c r="C126">
+        <v>33.725000000000001</v>
+      </c>
+      <c r="D126">
         <v>30</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E126">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71907.8858 CD</v>
+      </c>
+      <c r="C127">
+        <v>39.429000000000002</v>
+      </c>
+      <c r="D127">
+        <v>35</v>
+      </c>
+      <c r="E127">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71908.9266 CD</v>
+      </c>
+      <c r="C128">
+        <v>44.633000000000003</v>
+      </c>
+      <c r="D128">
+        <v>40</v>
+      </c>
+      <c r="E128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71910.0266 CD</v>
+      </c>
+      <c r="C129">
+        <v>50.133000000000003</v>
+      </c>
+      <c r="D129">
+        <v>45</v>
+      </c>
+      <c r="E129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71910.9266 CD</v>
+      </c>
+      <c r="C130">
+        <v>54.633000000000003</v>
+      </c>
+      <c r="D130">
+        <v>50</v>
+      </c>
+      <c r="E130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71911.908 CD</v>
+      </c>
+      <c r="C131">
+        <v>59.54</v>
+      </c>
+      <c r="D131">
+        <v>55</v>
+      </c>
+      <c r="E131">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71912.908 CD</v>
+      </c>
+      <c r="C132">
+        <v>64.540000000000006</v>
+      </c>
+      <c r="D132">
+        <v>60</v>
+      </c>
+      <c r="E132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71913.908 CD</v>
+      </c>
+      <c r="C133">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="D133">
+        <v>65</v>
+      </c>
+      <c r="E133">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71915.0924 CD</v>
+      </c>
+      <c r="C134">
+        <v>75.462000000000003</v>
+      </c>
+      <c r="D134">
+        <v>70</v>
+      </c>
+      <c r="E134">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71916.0924 CD</v>
+      </c>
+      <c r="C135">
+        <v>80.462000000000003</v>
+      </c>
+      <c r="D135">
+        <v>75</v>
+      </c>
+      <c r="E135">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71917.0924 CD</v>
+      </c>
+      <c r="C136">
+        <v>85.462000000000003</v>
+      </c>
+      <c r="D136">
+        <v>80</v>
+      </c>
+      <c r="E136">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71918.2746 CD</v>
+      </c>
+      <c r="C137">
+        <v>91.373000000000005</v>
+      </c>
+      <c r="D137">
+        <v>85</v>
+      </c>
+      <c r="E137">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71919.2746 CD</v>
+      </c>
+      <c r="C138">
+        <v>96.373000000000005</v>
+      </c>
+      <c r="D138">
+        <v>90</v>
+      </c>
+      <c r="E138">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71920.2746 CD</v>
+      </c>
+      <c r="C139">
+        <v>101.373</v>
+      </c>
+      <c r="D139">
+        <v>95</v>
+      </c>
+      <c r="E139">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71921.4566 CD</v>
+      </c>
+      <c r="C140">
+        <v>107.283</v>
+      </c>
+      <c r="D140">
+        <v>100</v>
+      </c>
+      <c r="E140">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71922.4566 CD</v>
+      </c>
+      <c r="C141">
+        <v>112.283</v>
+      </c>
+      <c r="D141">
+        <v>105</v>
+      </c>
+      <c r="E141">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71923.4566 CD</v>
+      </c>
+      <c r="C142">
+        <v>117.283</v>
+      </c>
+      <c r="D142">
+        <v>110</v>
+      </c>
+      <c r="E142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71925.6386 CD</v>
+      </c>
+      <c r="C143">
+        <v>128.19300000000001</v>
+      </c>
+      <c r="D143">
+        <v>120</v>
+      </c>
+      <c r="E143">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71927.8208 CD</v>
+      </c>
+      <c r="C144">
+        <v>139.10400000000001</v>
+      </c>
+      <c r="D144">
+        <v>130</v>
+      </c>
+      <c r="E144">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71929.8208 CD</v>
+      </c>
+      <c r="C145">
+        <v>149.10400000000001</v>
+      </c>
+      <c r="D145">
+        <v>140</v>
+      </c>
+      <c r="E145">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71932.1848 CD</v>
+      </c>
+      <c r="C146">
+        <v>160.92400000000001</v>
+      </c>
+      <c r="D146">
+        <v>150</v>
+      </c>
+      <c r="E146">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71934.1848 CD</v>
+      </c>
+      <c r="C147">
+        <v>170.92400000000001</v>
+      </c>
+      <c r="D147">
+        <v>160</v>
+      </c>
+      <c r="E147">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71936.1848 CD</v>
+      </c>
+      <c r="C148">
+        <v>180.92400000000001</v>
+      </c>
+      <c r="D148">
+        <v>170</v>
+      </c>
+      <c r="E148">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71938.5488 CD</v>
+      </c>
+      <c r="C149">
+        <v>192.744</v>
+      </c>
+      <c r="D149">
+        <v>180</v>
+      </c>
+      <c r="E149">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71940.5488 CD</v>
+      </c>
+      <c r="C150">
+        <v>202.744</v>
+      </c>
+      <c r="D150">
+        <v>190</v>
+      </c>
+      <c r="E150">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71942.913 CD</v>
+      </c>
+      <c r="C151">
+        <v>214.565</v>
+      </c>
+      <c r="D151">
+        <v>200</v>
+      </c>
+      <c r="E151">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71946.913 CD</v>
+      </c>
+      <c r="C152">
+        <v>234.565</v>
+      </c>
+      <c r="D152">
+        <v>220</v>
+      </c>
+      <c r="E152">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71950.913 CD</v>
+      </c>
+      <c r="C153">
+        <v>254.565</v>
+      </c>
+      <c r="D153">
+        <v>240</v>
+      </c>
+      <c r="E153">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71955.9594 CD</v>
+      </c>
+      <c r="C154">
+        <v>279.79700000000003</v>
+      </c>
+      <c r="D154">
+        <v>260</v>
+      </c>
+      <c r="E154">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71959.9594 CD</v>
+      </c>
+      <c r="C155">
+        <v>299.79700000000003</v>
+      </c>
+      <c r="D155">
+        <v>280</v>
+      </c>
+      <c r="E155">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71964.3696 CD</v>
+      </c>
+      <c r="C156">
+        <v>321.84800000000001</v>
+      </c>
+      <c r="D156">
+        <v>300</v>
+      </c>
+      <c r="E156">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71968.3696 CD</v>
+      </c>
+      <c r="C157">
+        <v>341.84800000000001</v>
+      </c>
+      <c r="D157">
+        <v>320</v>
+      </c>
+      <c r="E157">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71972.3696 CD</v>
+      </c>
+      <c r="C158">
+        <v>361.84800000000001</v>
+      </c>
+      <c r="D158">
+        <v>340</v>
+      </c>
+      <c r="E158">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f t="shared" si="2"/>
+        <v>IR-71976.3696 CD</v>
+      </c>
+      <c r="C159">
+        <v>381.84800000000001</v>
+      </c>
+      <c r="D159">
+        <v>360</v>
+      </c>
+      <c r="E159">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>516</v>
+      </c>
+      <c r="C160">
+        <v>8.3190000000000008</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+      <c r="E160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>517</v>
+      </c>
+      <c r="C161">
+        <v>9.4209999999999994</v>
+      </c>
+      <c r="D161">
+        <v>7</v>
+      </c>
+      <c r="E161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>518</v>
+      </c>
+      <c r="C162">
+        <v>11.023</v>
+      </c>
+      <c r="D162">
+        <v>8</v>
+      </c>
+      <c r="E162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>519</v>
+      </c>
+      <c r="C163">
+        <v>12.523</v>
+      </c>
+      <c r="D163">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>7201</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="E163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>520</v>
+      </c>
+      <c r="C164">
+        <v>13.225</v>
+      </c>
+      <c r="D164">
+        <v>10</v>
+      </c>
+      <c r="E164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>521</v>
+      </c>
+      <c r="C165">
+        <v>15.225</v>
+      </c>
+      <c r="D165">
+        <v>12</v>
+      </c>
+      <c r="E165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>522</v>
+      </c>
+      <c r="C166">
+        <v>18.725000000000001</v>
+      </c>
+      <c r="D166">
+        <v>15</v>
+      </c>
+      <c r="E166">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>523</v>
+      </c>
+      <c r="C167">
+        <v>20.428999999999998</v>
+      </c>
+      <c r="D167">
+        <v>17</v>
+      </c>
+      <c r="E167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>524</v>
+      </c>
+      <c r="C168">
+        <v>24.632999999999999</v>
+      </c>
+      <c r="D168">
+        <v>20</v>
+      </c>
+      <c r="E168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>525</v>
+      </c>
+      <c r="C169">
+        <v>29.632999999999999</v>
+      </c>
+      <c r="D169">
+        <v>25</v>
+      </c>
+      <c r="E169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>526</v>
+      </c>
+      <c r="C170">
+        <v>34.54</v>
+      </c>
+      <c r="D170">
+        <v>30</v>
+      </c>
+      <c r="E170">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>527</v>
+      </c>
+      <c r="C171">
+        <v>40.54</v>
+      </c>
+      <c r="D171">
+        <v>35</v>
+      </c>
+      <c r="E171">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>528</v>
+      </c>
+      <c r="C172">
+        <v>46.04</v>
+      </c>
+      <c r="D172">
+        <v>40</v>
+      </c>
+      <c r="E172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>529</v>
+      </c>
+      <c r="C173">
+        <v>50.462000000000003</v>
+      </c>
+      <c r="D173">
+        <v>45</v>
+      </c>
+      <c r="E173">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>530</v>
+      </c>
+      <c r="C174">
+        <v>55.462000000000003</v>
+      </c>
+      <c r="D174">
+        <v>50</v>
+      </c>
+      <c r="E174">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>531</v>
+      </c>
+      <c r="C175">
+        <v>61.372999999999998</v>
+      </c>
+      <c r="D175">
+        <v>55</v>
+      </c>
+      <c r="E175">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>532</v>
+      </c>
+      <c r="C176">
+        <v>66.373000000000005</v>
+      </c>
+      <c r="D176">
+        <v>60</v>
+      </c>
+      <c r="E176">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>533</v>
+      </c>
+      <c r="C177">
+        <v>71.373000000000005</v>
+      </c>
+      <c r="D177">
+        <v>65</v>
+      </c>
+      <c r="E177">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>534</v>
+      </c>
+      <c r="C178">
+        <v>77.283000000000001</v>
+      </c>
+      <c r="D178">
+        <v>70</v>
+      </c>
+      <c r="E178">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>535</v>
+      </c>
+      <c r="C179">
+        <v>82.283000000000001</v>
+      </c>
+      <c r="D179">
+        <v>75</v>
+      </c>
+      <c r="E179">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>536</v>
+      </c>
+      <c r="C180">
+        <v>88.192999999999998</v>
+      </c>
+      <c r="D180">
+        <v>80</v>
+      </c>
+      <c r="E180">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>537</v>
+      </c>
+      <c r="C181">
+        <v>93.192999999999998</v>
+      </c>
+      <c r="D181">
+        <v>85</v>
+      </c>
+      <c r="E181">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>538</v>
+      </c>
+      <c r="C182">
+        <v>99.103999999999999</v>
+      </c>
+      <c r="D182">
+        <v>90</v>
+      </c>
+      <c r="E182">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>539</v>
+      </c>
+      <c r="C183">
+        <v>104.104</v>
+      </c>
+      <c r="D183">
+        <v>95</v>
+      </c>
+      <c r="E183">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>540</v>
+      </c>
+      <c r="C184">
+        <v>109.104</v>
+      </c>
+      <c r="D184">
+        <v>100</v>
+      </c>
+      <c r="E184">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>541</v>
+      </c>
+      <c r="C185">
+        <v>115.014</v>
+      </c>
+      <c r="D185">
+        <v>105</v>
+      </c>
+      <c r="E185">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
+        <f t="shared" ref="A186:A199" si="3">"IR-"&amp;7000+C186/5&amp;" CD"</f>
+        <v>IR-7024.1848 CD</v>
+      </c>
+      <c r="C186">
+        <v>120.92400000000001</v>
+      </c>
+      <c r="D186">
+        <v>110</v>
+      </c>
+      <c r="E186">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
+        <f t="shared" si="3"/>
+        <v>IR-7026.1848 CD</v>
+      </c>
+      <c r="C187">
+        <v>130.92400000000001</v>
+      </c>
+      <c r="D187">
+        <v>120</v>
+      </c>
+      <c r="E187">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
+        <f t="shared" si="3"/>
+        <v>IR-7028.5488 CD</v>
+      </c>
+      <c r="C188">
+        <v>142.744</v>
+      </c>
+      <c r="D188">
+        <v>130</v>
+      </c>
+      <c r="E188">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
+        <f t="shared" si="3"/>
+        <v>IR-7030.5488 CD</v>
+      </c>
+      <c r="C189">
+        <v>152.744</v>
+      </c>
+      <c r="D189">
+        <v>140</v>
+      </c>
+      <c r="E189">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
+        <f t="shared" si="3"/>
+        <v>IR-7032.7312 CD</v>
+      </c>
+      <c r="C190">
+        <v>163.65600000000001</v>
+      </c>
+      <c r="D190">
+        <v>150</v>
+      </c>
+      <c r="E190">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
+        <f t="shared" si="3"/>
+        <v>IR-7034.913 CD</v>
+      </c>
+      <c r="C191">
+        <v>174.565</v>
+      </c>
+      <c r="D191">
+        <v>160</v>
+      </c>
+      <c r="E191">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
+        <f t="shared" si="3"/>
+        <v>IR-7037.595 CD</v>
+      </c>
+      <c r="C192">
+        <v>187.97499999999999</v>
+      </c>
+      <c r="D192">
+        <v>170</v>
+      </c>
+      <c r="E192">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
+        <f t="shared" si="3"/>
+        <v>IR-7039.9594 CD</v>
+      </c>
+      <c r="C193">
+        <v>199.797</v>
+      </c>
+      <c r="D193">
+        <v>180</v>
+      </c>
+      <c r="E193">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
+        <f t="shared" si="3"/>
+        <v>IR-7041.9594 CD</v>
+      </c>
+      <c r="C194">
+        <v>209.797</v>
+      </c>
+      <c r="D194">
+        <v>190</v>
+      </c>
+      <c r="E194">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f t="shared" si="3"/>
+        <v>IR-7044.0054 CD</v>
+      </c>
+      <c r="C195">
+        <v>220.02699999999999</v>
+      </c>
+      <c r="D195">
+        <v>200</v>
+      </c>
+      <c r="E195">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f t="shared" si="3"/>
+        <v>IR-7048.3696 CD</v>
+      </c>
+      <c r="C196">
+        <v>241.84800000000001</v>
+      </c>
+      <c r="D196">
+        <v>220</v>
+      </c>
+      <c r="E196">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
+        <f t="shared" si="3"/>
+        <v>IR-7052.3696 CD</v>
+      </c>
+      <c r="C197">
+        <v>261.84800000000001</v>
+      </c>
+      <c r="D197">
+        <v>240</v>
+      </c>
+      <c r="E197">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
+        <f t="shared" si="3"/>
+        <v>IR-7057.098 CD</v>
+      </c>
+      <c r="C198">
+        <v>285.49</v>
+      </c>
+      <c r="D198">
+        <v>260</v>
+      </c>
+      <c r="E198">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
+        <f t="shared" si="3"/>
+        <v>IR-7000 CD</v>
+      </c>
+      <c r="D199">
+        <v>300</v>
+      </c>
+      <c r="E199">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>542</v>
+      </c>
+      <c r="C200">
+        <v>11.02</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>543</v>
+      </c>
+      <c r="C201">
+        <v>11.225</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>544</v>
+      </c>
+      <c r="C202">
+        <v>13.225</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>545</v>
+      </c>
+      <c r="C203">
+        <v>15.425000000000001</v>
+      </c>
+      <c r="D203">
+        <v>10</v>
+      </c>
+      <c r="E203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>546</v>
+      </c>
+      <c r="C204">
+        <v>16.428999999999998</v>
+      </c>
+      <c r="D204">
+        <v>12</v>
+      </c>
+      <c r="E204">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>547</v>
+      </c>
+      <c r="C205">
+        <v>18.893000000000001</v>
+      </c>
+      <c r="D205">
+        <v>15</v>
+      </c>
+      <c r="E205">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>548</v>
+      </c>
+      <c r="C206">
+        <v>21.335999999999999</v>
+      </c>
+      <c r="D206">
+        <v>17</v>
+      </c>
+      <c r="E206">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="str">
+        <f t="shared" ref="A207:A231" si="4">"IR-"&amp;7200+C207/5&amp;" CD"</f>
+        <v>IR-7205.188 CD</v>
+      </c>
+      <c r="C207">
+        <v>25.94</v>
+      </c>
+      <c r="D207">
+        <v>20</v>
+      </c>
+      <c r="E207">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7206.188 CD</v>
+      </c>
+      <c r="C208">
+        <v>30.94</v>
+      </c>
+      <c r="D208">
+        <v>25</v>
+      </c>
+      <c r="E208">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7207.2924 CD</v>
+      </c>
+      <c r="C209">
+        <v>36.462000000000003</v>
+      </c>
+      <c r="D209">
+        <v>30</v>
+      </c>
+      <c r="E209">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7208.4746 CD</v>
+      </c>
+      <c r="C210">
+        <v>42.372999999999998</v>
+      </c>
+      <c r="D210">
+        <v>35</v>
+      </c>
+      <c r="E210">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7209.7746 CD</v>
+      </c>
+      <c r="C211">
+        <v>48.872999999999998</v>
+      </c>
+      <c r="D211">
+        <v>40</v>
+      </c>
+      <c r="E211">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7210.4566 CD</v>
+      </c>
+      <c r="C212">
+        <v>52.283000000000001</v>
+      </c>
+      <c r="D212">
+        <f t="shared" ref="D212:D223" si="5">D211+5</f>
+        <v>45</v>
+      </c>
+      <c r="E212">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7211.4566 CD</v>
+      </c>
+      <c r="C213">
+        <v>57.283000000000001</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="E213">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7212.6386 CD</v>
+      </c>
+      <c r="C214">
+        <v>63.192999999999998</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="E214">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7214.1386 CD</v>
+      </c>
+      <c r="C215">
+        <v>70.692999999999998</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="E215">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7215.3206 CD</v>
+      </c>
+      <c r="C216">
+        <v>76.602999999999994</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="E216">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7216.3206 CD</v>
+      </c>
+      <c r="C217">
+        <v>81.602999999999994</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="E217">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7217.3206 CD</v>
+      </c>
+      <c r="C218">
+        <v>86.602999999999994</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="E218">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7218.5028 CD</v>
+      </c>
+      <c r="C219">
+        <v>92.513999999999996</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="E219">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7219.7848 CD</v>
+      </c>
+      <c r="C220">
+        <v>98.924000000000007</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="E220">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7220.5488 CD</v>
+      </c>
+      <c r="C221">
+        <v>102.744</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E221">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7221.7312 CD</v>
+      </c>
+      <c r="C222">
+        <v>108.65600000000001</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="5"/>
+        <v>95</v>
+      </c>
+      <c r="E222">
         <v>32</v>
       </c>
-      <c r="C3" s="1">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>7002</v>
-      </c>
-      <c r="B4" s="1">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>7202</v>
-      </c>
-      <c r="B5" s="1">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>71903</v>
-      </c>
-      <c r="B6" s="1">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>7003</v>
-      </c>
-      <c r="B7" s="1">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7203</v>
-      </c>
-      <c r="B8" s="1">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7222.913 CD</v>
+      </c>
+      <c r="C223">
+        <v>114.565</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="E223">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7224.095 CD</v>
+      </c>
+      <c r="C224">
+        <v>120.47499999999999</v>
+      </c>
+      <c r="D224">
+        <v>105</v>
+      </c>
+      <c r="E224">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7225.595 CD</v>
+      </c>
+      <c r="C225">
+        <v>127.97499999999999</v>
+      </c>
+      <c r="D225">
+        <v>110</v>
+      </c>
+      <c r="E225">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7227.6594 CD</v>
+      </c>
+      <c r="C226">
+        <v>138.297</v>
+      </c>
+      <c r="D226">
+        <v>120</v>
+      </c>
+      <c r="E226">
         <v>40</v>
       </c>
-      <c r="C8" s="1">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>71904</v>
-      </c>
-      <c r="B9" s="1">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>7004</v>
-      </c>
-      <c r="B10" s="1">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7230.1594 CD</v>
+      </c>
+      <c r="C227">
+        <v>150.797</v>
+      </c>
+      <c r="D227">
+        <v>130</v>
+      </c>
+      <c r="E227">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7232.9594 CD</v>
+      </c>
+      <c r="C228">
+        <v>164.797</v>
+      </c>
+      <c r="D228">
+        <v>140</v>
+      </c>
+      <c r="E228">
         <v>42</v>
       </c>
-      <c r="C10" s="1">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>7204</v>
-      </c>
-      <c r="B11" s="1">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>71905</v>
-      </c>
-      <c r="B12" s="1">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>7005</v>
-      </c>
-      <c r="B13" s="1">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B14" s="1">
-        <v>47</v>
-      </c>
-      <c r="C14" s="1">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>7205</v>
-      </c>
-      <c r="B15" s="1">
-        <v>52</v>
-      </c>
-      <c r="C15" s="1">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>71906</v>
-      </c>
-      <c r="B16" s="1">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>7006</v>
-      </c>
-      <c r="B17" s="1">
-        <v>55</v>
-      </c>
-      <c r="C17" s="1">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B18" s="1">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>7206</v>
-      </c>
-      <c r="B19" s="1">
-        <v>62</v>
-      </c>
-      <c r="C19" s="1">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>71907</v>
-      </c>
-      <c r="B20" s="1">
-        <v>55</v>
-      </c>
-      <c r="C20" s="1">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>7007</v>
-      </c>
-      <c r="B21" s="1">
-        <v>62</v>
-      </c>
-      <c r="C21" s="1">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B22" s="1">
-        <v>62</v>
-      </c>
-      <c r="C22" s="1">
-        <v>35</v>
-      </c>
-      <c r="D22" s="1">
-        <v>20</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>7207</v>
-      </c>
-      <c r="B23" s="1">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7200 CD</v>
+      </c>
+      <c r="D229">
+        <v>150</v>
+      </c>
+      <c r="E229">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7200 CD</v>
+      </c>
+      <c r="D230">
+        <v>220</v>
+      </c>
+      <c r="E230">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="str">
+        <f t="shared" si="4"/>
+        <v>IR-7200 CD</v>
+      </c>
+      <c r="D231">
+        <v>240</v>
+      </c>
+      <c r="E231">
         <v>72</v>
       </c>
-      <c r="C23" s="1">
-        <v>35</v>
-      </c>
-      <c r="D23" s="1">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>71908</v>
-      </c>
-      <c r="B24" s="1">
-        <v>62</v>
-      </c>
-      <c r="C24" s="1">
-        <v>40</v>
-      </c>
-      <c r="D24" s="1">
-        <v>12</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>7008</v>
-      </c>
-      <c r="B25" s="1">
-        <v>68</v>
-      </c>
-      <c r="C25" s="1">
-        <v>40</v>
-      </c>
-      <c r="D25" s="1">
-        <v>15</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B26" s="1">
-        <v>68</v>
-      </c>
-      <c r="C26" s="1">
-        <v>40</v>
-      </c>
-      <c r="D26" s="1">
-        <v>15</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B27" s="1">
-        <v>68</v>
-      </c>
-      <c r="C27" s="1">
-        <v>40</v>
-      </c>
-      <c r="D27" s="1">
-        <v>21</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>7208</v>
-      </c>
-      <c r="B28" s="1">
-        <v>80</v>
-      </c>
-      <c r="C28" s="1">
-        <v>40</v>
-      </c>
-      <c r="D28" s="1">
-        <v>18</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>71909</v>
-      </c>
-      <c r="B29" s="1">
-        <v>68</v>
-      </c>
-      <c r="C29" s="1">
-        <v>45</v>
-      </c>
-      <c r="D29" s="1">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>7009</v>
-      </c>
-      <c r="B30" s="1">
-        <v>75</v>
-      </c>
-      <c r="C30" s="1">
-        <v>45</v>
-      </c>
-      <c r="D30" s="1">
-        <v>16</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B31" s="1">
-        <v>75</v>
-      </c>
-      <c r="C31" s="1">
-        <v>45</v>
-      </c>
-      <c r="D31" s="1">
-        <v>16</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B32" s="1">
-        <v>75</v>
-      </c>
-      <c r="C32" s="1">
-        <v>45</v>
-      </c>
-      <c r="D32" s="1">
-        <v>23</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>7209</v>
-      </c>
-      <c r="B33" s="1">
-        <v>85</v>
-      </c>
-      <c r="C33" s="1">
-        <v>45</v>
-      </c>
-      <c r="D33" s="1">
-        <v>19</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B34" s="1">
-        <v>62</v>
-      </c>
-      <c r="C34" s="1">
-        <v>48.8</v>
-      </c>
-      <c r="D34" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>71910</v>
-      </c>
-      <c r="B35" s="1">
-        <v>72</v>
-      </c>
-      <c r="C35" s="1">
-        <v>50</v>
-      </c>
-      <c r="D35" s="1">
-        <v>12</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>7010</v>
-      </c>
-      <c r="B36" s="1">
-        <v>80</v>
-      </c>
-      <c r="C36" s="1">
-        <v>50</v>
-      </c>
-      <c r="D36" s="1">
-        <v>16</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B37" s="1">
-        <v>80</v>
-      </c>
-      <c r="C37" s="1">
-        <v>50</v>
-      </c>
-      <c r="D37" s="1">
-        <v>16</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2</v>
-      </c>
-      <c r="G37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B38" s="1">
-        <v>80</v>
-      </c>
-      <c r="C38" s="1">
-        <v>50</v>
-      </c>
-      <c r="D38" s="1">
-        <v>23</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>7210</v>
-      </c>
-      <c r="B39" s="1">
-        <v>90</v>
-      </c>
-      <c r="C39" s="1">
-        <v>50</v>
-      </c>
-      <c r="D39" s="1">
-        <v>20</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B40" s="1">
-        <v>68</v>
-      </c>
-      <c r="C40" s="1">
-        <v>54.3</v>
-      </c>
-      <c r="D40" s="1">
-        <v>9</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>71911</v>
-      </c>
-      <c r="B41" s="1">
-        <v>80</v>
-      </c>
-      <c r="C41" s="1">
-        <v>55</v>
-      </c>
-      <c r="D41" s="1">
-        <v>13</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>7011</v>
-      </c>
-      <c r="B42" s="1">
-        <v>90</v>
-      </c>
-      <c r="C42" s="1">
-        <v>55</v>
-      </c>
-      <c r="D42" s="1">
-        <v>18</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B43" s="1">
-        <v>90</v>
-      </c>
-      <c r="C43" s="1">
-        <v>55</v>
-      </c>
-      <c r="D43" s="1">
-        <v>18</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F43" s="1">
-        <v>2</v>
-      </c>
-      <c r="G43" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B44" s="1">
-        <v>90</v>
-      </c>
-      <c r="C44" s="1">
-        <v>55</v>
-      </c>
-      <c r="D44" s="1">
-        <v>26</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F44" s="1">
-        <v>2</v>
-      </c>
-      <c r="G44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>7211</v>
-      </c>
-      <c r="B45" s="1">
-        <v>100</v>
-      </c>
-      <c r="C45" s="1">
-        <v>55</v>
-      </c>
-      <c r="D45" s="1">
-        <v>21</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>71912</v>
-      </c>
-      <c r="B46" s="1">
-        <v>85</v>
-      </c>
-      <c r="C46" s="1">
-        <v>60</v>
-      </c>
-      <c r="D46" s="1">
-        <v>13</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>7012</v>
-      </c>
-      <c r="B47" s="1">
-        <v>95</v>
-      </c>
-      <c r="C47" s="1">
-        <v>60</v>
-      </c>
-      <c r="D47" s="1">
-        <v>18</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B48" s="1">
-        <v>95</v>
-      </c>
-      <c r="C48" s="1">
-        <v>60</v>
-      </c>
-      <c r="D48" s="1">
-        <v>18</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F48" s="1">
-        <v>2</v>
-      </c>
-      <c r="G48" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B49" s="1">
-        <v>95</v>
-      </c>
-      <c r="C49" s="1">
-        <v>60</v>
-      </c>
-      <c r="D49" s="1">
-        <v>26</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2</v>
-      </c>
-      <c r="G49" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>7212</v>
-      </c>
-      <c r="B50" s="1">
-        <v>110</v>
-      </c>
-      <c r="C50" s="1">
-        <v>60</v>
-      </c>
-      <c r="D50" s="1">
-        <v>22</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B51" s="1">
-        <v>75</v>
-      </c>
-      <c r="C51" s="1">
-        <v>60.3</v>
-      </c>
-      <c r="D51" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>71913</v>
-      </c>
-      <c r="B52" s="1">
-        <v>90</v>
-      </c>
-      <c r="C52" s="1">
-        <v>65</v>
-      </c>
-      <c r="D52" s="1">
-        <v>13</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>7013</v>
-      </c>
-      <c r="B53" s="1">
-        <v>100</v>
-      </c>
-      <c r="C53" s="1">
-        <v>65</v>
-      </c>
-      <c r="D53" s="1">
-        <v>18</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B54" s="1">
-        <v>100</v>
-      </c>
-      <c r="C54" s="1">
-        <v>65</v>
-      </c>
-      <c r="D54" s="1">
-        <v>18</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F54" s="1">
-        <v>2</v>
-      </c>
-      <c r="G54" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B55" s="1">
-        <v>100</v>
-      </c>
-      <c r="C55" s="1">
-        <v>65</v>
-      </c>
-      <c r="D55" s="1">
-        <v>26</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F55" s="1">
-        <v>2</v>
-      </c>
-      <c r="G55" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>7213</v>
-      </c>
-      <c r="B56" s="1">
-        <v>120</v>
-      </c>
-      <c r="C56" s="1">
-        <v>65</v>
-      </c>
-      <c r="D56" s="1">
-        <v>23</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B57" s="1">
-        <v>80</v>
-      </c>
-      <c r="C57" s="1">
-        <v>65.3</v>
-      </c>
-      <c r="D57" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>71914</v>
-      </c>
-      <c r="B58" s="1">
-        <v>100</v>
-      </c>
-      <c r="C58" s="1">
-        <v>70</v>
-      </c>
-      <c r="D58" s="1">
-        <v>16</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>7014</v>
-      </c>
-      <c r="B59" s="1">
-        <v>110</v>
-      </c>
-      <c r="C59" s="1">
-        <v>70</v>
-      </c>
-      <c r="D59" s="1">
-        <v>20</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B60" s="1">
-        <v>110</v>
-      </c>
-      <c r="C60" s="1">
-        <v>70</v>
-      </c>
-      <c r="D60" s="1">
-        <v>20</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F60" s="1">
-        <v>2</v>
-      </c>
-      <c r="G60" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B61" s="1">
-        <v>110</v>
-      </c>
-      <c r="C61" s="1">
-        <v>70</v>
-      </c>
-      <c r="D61" s="1">
-        <v>30</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F61" s="1">
-        <v>2</v>
-      </c>
-      <c r="G61" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>7214</v>
-      </c>
-      <c r="B62" s="1">
-        <v>125</v>
-      </c>
-      <c r="C62" s="1">
-        <v>70</v>
-      </c>
-      <c r="D62" s="1">
-        <v>24</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B63" s="1">
-        <v>90</v>
-      </c>
-      <c r="C63" s="1">
-        <v>72.8</v>
-      </c>
-      <c r="D63" s="1">
-        <v>11</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>71915</v>
-      </c>
-      <c r="B64" s="1">
-        <v>105</v>
-      </c>
-      <c r="C64" s="1">
-        <v>75</v>
-      </c>
-      <c r="D64" s="1">
-        <v>16</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>7015</v>
-      </c>
-      <c r="B65" s="1">
-        <v>115</v>
-      </c>
-      <c r="C65" s="1">
-        <v>75</v>
-      </c>
-      <c r="D65" s="1">
-        <v>20</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B66" s="1">
-        <v>115</v>
-      </c>
-      <c r="C66" s="1">
-        <v>75</v>
-      </c>
-      <c r="D66" s="1">
-        <v>20</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F66" s="1">
-        <v>2</v>
-      </c>
-      <c r="G66" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B67" s="1">
-        <v>115</v>
-      </c>
-      <c r="C67" s="1">
-        <v>75</v>
-      </c>
-      <c r="D67" s="1">
-        <v>30</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F67" s="1">
-        <v>2</v>
-      </c>
-      <c r="G67" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>7215</v>
-      </c>
-      <c r="B68" s="1">
-        <v>130</v>
-      </c>
-      <c r="C68" s="1">
-        <v>75</v>
-      </c>
-      <c r="D68" s="1">
-        <v>25</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B69" s="1">
-        <v>95</v>
-      </c>
-      <c r="C69" s="1">
-        <v>77.8</v>
-      </c>
-      <c r="D69" s="1">
-        <v>11</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>71916</v>
-      </c>
-      <c r="B70" s="1">
-        <v>110</v>
-      </c>
-      <c r="C70" s="1">
-        <v>80</v>
-      </c>
-      <c r="D70" s="1">
-        <v>16</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>7016</v>
-      </c>
-      <c r="B71" s="1">
-        <v>125</v>
-      </c>
-      <c r="C71" s="1">
-        <v>80</v>
-      </c>
-      <c r="D71" s="1">
-        <v>22</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B72" s="1">
-        <v>125</v>
-      </c>
-      <c r="C72" s="1">
-        <v>80</v>
-      </c>
-      <c r="D72" s="1">
-        <v>20.25</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F72" s="1">
-        <v>3</v>
-      </c>
-      <c r="G72" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B73" s="1">
-        <v>125</v>
-      </c>
-      <c r="C73" s="1">
-        <v>80</v>
-      </c>
-      <c r="D73" s="1">
-        <v>22</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F73" s="1">
-        <v>2</v>
-      </c>
-      <c r="G73" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B74" s="1">
-        <v>125</v>
-      </c>
-      <c r="C74" s="1">
-        <v>80</v>
-      </c>
-      <c r="D74" s="1">
-        <v>34</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F74" s="1">
-        <v>2</v>
-      </c>
-      <c r="G74" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>7216</v>
-      </c>
-      <c r="B75" s="1">
-        <v>140</v>
-      </c>
-      <c r="C75" s="1">
-        <v>80</v>
-      </c>
-      <c r="D75" s="1">
-        <v>26</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B76" s="1">
-        <v>100</v>
-      </c>
-      <c r="C76" s="1">
-        <v>82.8</v>
-      </c>
-      <c r="D76" s="1">
-        <v>11</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>71917</v>
-      </c>
-      <c r="B77" s="1">
-        <v>120</v>
-      </c>
-      <c r="C77" s="1">
-        <v>85</v>
-      </c>
-      <c r="D77" s="1">
-        <v>18</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F77" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>7017</v>
-      </c>
-      <c r="B78" s="1">
-        <v>130</v>
-      </c>
-      <c r="C78" s="1">
-        <v>85</v>
-      </c>
-      <c r="D78" s="1">
-        <v>22</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F78" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B79" s="1">
-        <v>130</v>
-      </c>
-      <c r="C79" s="1">
-        <v>85</v>
-      </c>
-      <c r="D79" s="1">
-        <v>20.25</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F79" s="1">
-        <v>3</v>
-      </c>
-      <c r="G79" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B80" s="1">
-        <v>130</v>
-      </c>
-      <c r="C80" s="1">
-        <v>85</v>
-      </c>
-      <c r="D80" s="1">
-        <v>22</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F80" s="1">
-        <v>3</v>
-      </c>
-      <c r="G80" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B81" s="1">
-        <v>130</v>
-      </c>
-      <c r="C81" s="1">
-        <v>85</v>
-      </c>
-      <c r="D81" s="1">
-        <v>34</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F81" s="1">
-        <v>3</v>
-      </c>
-      <c r="G81" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>7217</v>
-      </c>
-      <c r="B82" s="1">
-        <v>150</v>
-      </c>
-      <c r="C82" s="1">
-        <v>85</v>
-      </c>
-      <c r="D82" s="1">
-        <v>28</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F82" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>71818</v>
-      </c>
-      <c r="B83" s="1">
-        <v>115</v>
-      </c>
-      <c r="C83" s="1">
-        <v>90</v>
-      </c>
-      <c r="D83" s="1">
-        <v>13</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F83" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G83" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>71918</v>
-      </c>
-      <c r="B84" s="1">
-        <v>125</v>
-      </c>
-      <c r="C84" s="1">
-        <v>90</v>
-      </c>
-      <c r="D84" s="1">
-        <v>18</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F84" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>7018</v>
-      </c>
-      <c r="B85" s="1">
-        <v>140</v>
-      </c>
-      <c r="C85" s="1">
-        <v>90</v>
-      </c>
-      <c r="D85" s="1">
-        <v>24</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F85" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B86" s="1">
-        <v>140</v>
-      </c>
-      <c r="C86" s="1">
-        <v>90</v>
-      </c>
-      <c r="D86" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F86" s="1">
-        <v>3</v>
-      </c>
-      <c r="G86" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B87" s="1">
-        <v>140</v>
-      </c>
-      <c r="C87" s="1">
-        <v>90</v>
-      </c>
-      <c r="D87" s="1">
-        <v>24</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F87" s="1">
-        <v>3</v>
-      </c>
-      <c r="G87" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B88" s="1">
-        <v>140</v>
-      </c>
-      <c r="C88" s="1">
-        <v>90</v>
-      </c>
-      <c r="D88" s="1">
-        <v>37</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F88" s="1">
-        <v>3</v>
-      </c>
-      <c r="G88" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>7218</v>
-      </c>
-      <c r="B89" s="1">
-        <v>160</v>
-      </c>
-      <c r="C89" s="1">
-        <v>90</v>
-      </c>
-      <c r="D89" s="1">
-        <v>30</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F89" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B90" s="1">
-        <v>110</v>
-      </c>
-      <c r="C90" s="1">
-        <v>90.6</v>
-      </c>
-      <c r="D90" s="1">
-        <v>12</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F90" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>71819</v>
-      </c>
-      <c r="B91" s="1">
-        <v>120</v>
-      </c>
-      <c r="C91" s="1">
-        <v>95</v>
-      </c>
-      <c r="D91" s="1">
-        <v>13</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F91" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>71919</v>
-      </c>
-      <c r="B92" s="1">
-        <v>130</v>
-      </c>
-      <c r="C92" s="1">
-        <v>95</v>
-      </c>
-      <c r="D92" s="1">
-        <v>18</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F92" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>7019</v>
-      </c>
-      <c r="B93" s="1">
-        <v>145</v>
-      </c>
-      <c r="C93" s="1">
-        <v>95</v>
-      </c>
-      <c r="D93" s="1">
-        <v>24</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F93" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B94" s="1">
-        <v>145</v>
-      </c>
-      <c r="C94" s="1">
-        <v>95</v>
-      </c>
-      <c r="D94" s="1">
-        <v>24</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F94" s="1">
-        <v>3</v>
-      </c>
-      <c r="G94" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B95" s="1">
-        <v>145</v>
-      </c>
-      <c r="C95" s="1">
-        <v>95</v>
-      </c>
-      <c r="D95" s="1">
-        <v>37</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F95" s="1">
-        <v>3</v>
-      </c>
-      <c r="G95" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>7219</v>
-      </c>
-      <c r="B96" s="1">
-        <v>170</v>
-      </c>
-      <c r="C96" s="1">
-        <v>95</v>
-      </c>
-      <c r="D96" s="1">
-        <v>32</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F96" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B97" s="1">
-        <v>115</v>
-      </c>
-      <c r="C97" s="1">
-        <v>95.6</v>
-      </c>
-      <c r="D97" s="1">
-        <v>12</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F97" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>71820</v>
-      </c>
-      <c r="B98" s="1">
-        <v>125</v>
-      </c>
-      <c r="C98" s="1">
-        <v>100</v>
-      </c>
-      <c r="D98" s="1">
-        <v>13</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F98" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>71920</v>
-      </c>
-      <c r="B99" s="1">
-        <v>140</v>
-      </c>
-      <c r="C99" s="1">
-        <v>100</v>
-      </c>
-      <c r="D99" s="1">
-        <v>20</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F99" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>7020</v>
-      </c>
-      <c r="B100" s="1">
-        <v>150</v>
-      </c>
-      <c r="C100" s="1">
-        <v>100</v>
-      </c>
-      <c r="D100" s="1">
-        <v>24</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F100" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B101" s="1">
-        <v>150</v>
-      </c>
-      <c r="C101" s="1">
-        <v>100</v>
-      </c>
-      <c r="D101" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F101" s="1">
-        <v>3</v>
-      </c>
-      <c r="G101" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B102" s="1">
-        <v>150</v>
-      </c>
-      <c r="C102" s="1">
-        <v>100</v>
-      </c>
-      <c r="D102" s="1">
-        <v>24</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F102" s="1">
-        <v>3</v>
-      </c>
-      <c r="G102" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B103" s="1">
-        <v>150</v>
-      </c>
-      <c r="C103" s="1">
-        <v>100</v>
-      </c>
-      <c r="D103" s="1">
-        <v>37</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F103" s="1">
-        <v>3</v>
-      </c>
-      <c r="G103" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>7220</v>
-      </c>
-      <c r="B104" s="1">
-        <v>180</v>
-      </c>
-      <c r="C104" s="1">
-        <v>100</v>
-      </c>
-      <c r="D104" s="1">
-        <v>34</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F104" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B105" s="1">
-        <v>125</v>
-      </c>
-      <c r="C105" s="1">
-        <v>103.1</v>
-      </c>
-      <c r="D105" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F105" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G105" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>71821</v>
-      </c>
-      <c r="B106" s="1">
-        <v>130</v>
-      </c>
-      <c r="C106" s="1">
-        <v>105</v>
-      </c>
-      <c r="D106" s="1">
-        <v>13</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F106" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G106" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>71921</v>
-      </c>
-      <c r="B107" s="1">
-        <v>145</v>
-      </c>
-      <c r="C107" s="1">
-        <v>105</v>
-      </c>
-      <c r="D107" s="1">
-        <v>20</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F107" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>7021</v>
-      </c>
-      <c r="B108" s="1">
-        <v>160</v>
-      </c>
-      <c r="C108" s="1">
-        <v>105</v>
-      </c>
-      <c r="D108" s="1">
-        <v>26</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F108" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G108" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B109" s="1">
-        <v>160</v>
-      </c>
-      <c r="C109" s="1">
-        <v>105</v>
-      </c>
-      <c r="D109" s="1">
-        <v>26</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F109" s="1">
-        <v>3</v>
-      </c>
-      <c r="G109" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B110" s="1">
-        <v>160</v>
-      </c>
-      <c r="C110" s="1">
-        <v>105</v>
-      </c>
-      <c r="D110" s="1">
-        <v>41</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F110" s="1">
-        <v>3</v>
-      </c>
-      <c r="G110" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>7221</v>
-      </c>
-      <c r="B111" s="1">
-        <v>190</v>
-      </c>
-      <c r="C111" s="1">
-        <v>105</v>
-      </c>
-      <c r="D111" s="1">
-        <v>36</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F111" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G111" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B112" s="1">
-        <v>130</v>
-      </c>
-      <c r="C112" s="1">
-        <v>108.1</v>
-      </c>
-      <c r="D112" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F112" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G112" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>71822</v>
-      </c>
-      <c r="B113" s="1">
-        <v>140</v>
-      </c>
-      <c r="C113" s="1">
-        <v>110</v>
-      </c>
-      <c r="D113" s="1">
-        <v>16</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F113" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G113" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>71922</v>
-      </c>
-      <c r="B114" s="1">
-        <v>150</v>
-      </c>
-      <c r="C114" s="1">
-        <v>110</v>
-      </c>
-      <c r="D114" s="1">
-        <v>20</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F114" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G114" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>7022</v>
-      </c>
-      <c r="B115" s="1">
-        <v>170</v>
-      </c>
-      <c r="C115" s="1">
-        <v>110</v>
-      </c>
-      <c r="D115" s="1">
-        <v>28</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F115" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G115" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B116" s="1">
-        <v>170</v>
-      </c>
-      <c r="C116" s="1">
-        <v>110</v>
-      </c>
-      <c r="D116" s="1">
-        <v>27</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F116" s="1">
-        <v>4</v>
-      </c>
-      <c r="G116" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B117" s="1">
-        <v>170</v>
-      </c>
-      <c r="C117" s="1">
-        <v>110</v>
-      </c>
-      <c r="D117" s="1">
-        <v>28</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F117" s="1">
-        <v>3</v>
-      </c>
-      <c r="G117" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B118" s="1">
-        <v>170</v>
-      </c>
-      <c r="C118" s="1">
-        <v>110</v>
-      </c>
-      <c r="D118" s="1">
-        <v>45</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F118" s="1">
-        <v>3</v>
-      </c>
-      <c r="G118" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>7222</v>
-      </c>
-      <c r="B119" s="1">
-        <v>200</v>
-      </c>
-      <c r="C119" s="1">
-        <v>110</v>
-      </c>
-      <c r="D119" s="1">
-        <v>38</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F119" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G119" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B120" s="1">
-        <v>140</v>
-      </c>
-      <c r="C120" s="1">
-        <v>115.6</v>
-      </c>
-      <c r="D120" s="1">
-        <v>15</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F120" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G120" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>71824</v>
-      </c>
-      <c r="B121" s="1">
-        <v>150</v>
-      </c>
-      <c r="C121" s="1">
-        <v>120</v>
-      </c>
-      <c r="D121" s="1">
-        <v>16</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F121" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G121" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>71924</v>
-      </c>
-      <c r="B122" s="1">
-        <v>165</v>
-      </c>
-      <c r="C122" s="1">
-        <v>120</v>
-      </c>
-      <c r="D122" s="1">
-        <v>22</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F122" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G122" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>7024</v>
-      </c>
-      <c r="B123" s="1">
-        <v>180</v>
-      </c>
-      <c r="C123" s="1">
-        <v>120</v>
-      </c>
-      <c r="D123" s="1">
-        <v>28</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F123" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G123" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B124" s="1">
-        <v>180</v>
-      </c>
-      <c r="C124" s="1">
-        <v>120</v>
-      </c>
-      <c r="D124" s="1">
-        <v>27</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F124" s="1">
-        <v>4</v>
-      </c>
-      <c r="G124" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B125" s="1">
-        <v>180</v>
-      </c>
-      <c r="C125" s="1">
-        <v>120</v>
-      </c>
-      <c r="D125" s="1">
-        <v>28</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F125" s="1">
-        <v>3</v>
-      </c>
-      <c r="G125" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B126" s="1">
-        <v>180</v>
-      </c>
-      <c r="C126" s="1">
-        <v>120</v>
-      </c>
-      <c r="D126" s="1">
-        <v>46</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F126" s="1">
-        <v>3</v>
-      </c>
-      <c r="G126" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>7224</v>
-      </c>
-      <c r="B127" s="1">
-        <v>215</v>
-      </c>
-      <c r="C127" s="1">
-        <v>120</v>
-      </c>
-      <c r="D127" s="1">
-        <v>40</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F127" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G127" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B128" s="1">
-        <v>145</v>
-      </c>
-      <c r="C128" s="1">
-        <v>120.6</v>
-      </c>
-      <c r="D128" s="1">
-        <v>15</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F128" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G128" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B129" s="1">
-        <v>150</v>
-      </c>
-      <c r="C129" s="1">
-        <v>125.6</v>
-      </c>
-      <c r="D129" s="1">
-        <v>15</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F129" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G129" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>71826</v>
-      </c>
-      <c r="B130" s="1">
-        <v>165</v>
-      </c>
-      <c r="C130" s="1">
-        <v>130</v>
-      </c>
-      <c r="D130" s="1">
-        <v>18</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F130" s="1">
-        <v>4</v>
-      </c>
-      <c r="G130" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>71926</v>
-      </c>
-      <c r="B131" s="1">
-        <v>180</v>
-      </c>
-      <c r="C131" s="1">
-        <v>130</v>
-      </c>
-      <c r="D131" s="1">
-        <v>24</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F131" s="1">
-        <v>4</v>
-      </c>
-      <c r="G131" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>7026</v>
-      </c>
-      <c r="B132" s="1">
-        <v>200</v>
-      </c>
-      <c r="C132" s="1">
-        <v>130</v>
-      </c>
-      <c r="D132" s="1">
-        <v>33</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F132" s="1">
-        <v>4</v>
-      </c>
-      <c r="G132" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B133" s="1">
-        <v>200</v>
-      </c>
-      <c r="C133" s="1">
-        <v>130</v>
-      </c>
-      <c r="D133" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F133" s="1">
-        <v>5</v>
-      </c>
-      <c r="G133" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B134" s="1">
-        <v>200</v>
-      </c>
-      <c r="C134" s="1">
-        <v>130</v>
-      </c>
-      <c r="D134" s="1">
-        <v>52</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F134" s="1">
-        <v>4</v>
-      </c>
-      <c r="G134" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>7226</v>
-      </c>
-      <c r="B135" s="1">
-        <v>230</v>
-      </c>
-      <c r="C135" s="1">
-        <v>130</v>
-      </c>
-      <c r="D135" s="1">
-        <v>40</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F135" s="1">
-        <v>4</v>
-      </c>
-      <c r="G135" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B136" s="1">
-        <v>160</v>
-      </c>
-      <c r="C136" s="1">
-        <v>133.6</v>
-      </c>
-      <c r="D136" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F136" s="1">
-        <v>4</v>
-      </c>
-      <c r="G136" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>71828</v>
-      </c>
-      <c r="B137" s="1">
-        <v>175</v>
-      </c>
-      <c r="C137" s="1">
-        <v>140</v>
-      </c>
-      <c r="D137" s="1">
-        <v>18</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F137" s="1">
-        <v>4</v>
-      </c>
-      <c r="G137" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>71928</v>
-      </c>
-      <c r="B138" s="1">
-        <v>190</v>
-      </c>
-      <c r="C138" s="1">
-        <v>140</v>
-      </c>
-      <c r="D138" s="1">
-        <v>24</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F138" s="1">
-        <v>4</v>
-      </c>
-      <c r="G138" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>7028</v>
-      </c>
-      <c r="B139" s="1">
-        <v>210</v>
-      </c>
-      <c r="C139" s="1">
-        <v>140</v>
-      </c>
-      <c r="D139" s="1">
-        <v>33</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F139" s="1">
-        <v>4</v>
-      </c>
-      <c r="G139" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B140" s="1">
-        <v>210</v>
-      </c>
-      <c r="C140" s="1">
-        <v>140</v>
-      </c>
-      <c r="D140" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F140" s="1">
-        <v>5</v>
-      </c>
-      <c r="G140" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B141" s="1">
-        <v>210</v>
-      </c>
-      <c r="C141" s="1">
-        <v>140</v>
-      </c>
-      <c r="D141" s="1">
-        <v>53</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F141" s="1">
-        <v>4</v>
-      </c>
-      <c r="G141" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>7228</v>
-      </c>
-      <c r="B142" s="1">
-        <v>250</v>
-      </c>
-      <c r="C142" s="1">
-        <v>140</v>
-      </c>
-      <c r="D142" s="1">
-        <v>42</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F142" s="1">
-        <v>4</v>
-      </c>
-      <c r="G142" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B143" s="1">
-        <v>170</v>
-      </c>
-      <c r="C143" s="1">
-        <v>141</v>
-      </c>
-      <c r="D143" s="1">
-        <v>18</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F143" s="1">
-        <v>4</v>
-      </c>
-      <c r="G143" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>71830</v>
-      </c>
-      <c r="B144" s="1">
-        <v>190</v>
-      </c>
-      <c r="C144" s="1">
-        <v>150</v>
-      </c>
-      <c r="D144" s="1">
-        <v>20</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F144" s="1">
-        <v>4</v>
-      </c>
-      <c r="G144" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>71930</v>
-      </c>
-      <c r="B145" s="1">
-        <v>210</v>
-      </c>
-      <c r="C145" s="1">
-        <v>150</v>
-      </c>
-      <c r="D145" s="1">
-        <v>28</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F145" s="1">
-        <v>4</v>
-      </c>
-      <c r="G145" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>7030</v>
-      </c>
-      <c r="B146" s="1">
-        <v>225</v>
-      </c>
-      <c r="C146" s="1">
-        <v>150</v>
-      </c>
-      <c r="D146" s="1">
-        <v>35</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F146" s="1">
-        <v>4</v>
-      </c>
-      <c r="G146" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B147" s="1">
-        <v>225</v>
-      </c>
-      <c r="C147" s="1">
-        <v>150</v>
-      </c>
-      <c r="D147" s="1">
-        <v>33.75</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F147" s="1">
-        <v>5</v>
-      </c>
-      <c r="G147" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B148" s="1">
-        <v>225</v>
-      </c>
-      <c r="C148" s="1">
-        <v>150</v>
-      </c>
-      <c r="D148" s="1">
-        <v>56</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F148" s="1">
-        <v>4</v>
-      </c>
-      <c r="G148" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B149" s="1">
-        <v>180</v>
-      </c>
-      <c r="C149" s="1">
-        <v>151</v>
-      </c>
-      <c r="D149" s="1">
-        <v>18</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F149" s="1">
-        <v>4</v>
-      </c>
-      <c r="G149" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>71832</v>
-      </c>
-      <c r="B150" s="1">
-        <v>200</v>
-      </c>
-      <c r="C150" s="1">
-        <v>160</v>
-      </c>
-      <c r="D150" s="1">
-        <v>20</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F150" s="1">
-        <v>4</v>
-      </c>
-      <c r="G150" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>71932</v>
-      </c>
-      <c r="B151" s="1">
-        <v>220</v>
-      </c>
-      <c r="C151" s="1">
-        <v>160</v>
-      </c>
-      <c r="D151" s="1">
-        <v>28</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F151" s="1">
-        <v>4</v>
-      </c>
-      <c r="G151" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
-        <v>7032</v>
-      </c>
-      <c r="B152" s="1">
-        <v>240</v>
-      </c>
-      <c r="C152" s="1">
-        <v>160</v>
-      </c>
-      <c r="D152" s="1">
-        <v>38</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F152" s="1">
-        <v>4</v>
-      </c>
-      <c r="G152" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B153" s="1">
-        <v>240</v>
-      </c>
-      <c r="C153" s="1">
-        <v>160</v>
-      </c>
-      <c r="D153" s="1">
-        <v>36</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F153" s="1">
-        <v>5</v>
-      </c>
-      <c r="G153" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B154" s="1">
-        <v>240</v>
-      </c>
-      <c r="C154" s="1">
-        <v>160</v>
-      </c>
-      <c r="D154" s="1">
-        <v>60</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F154" s="1">
-        <v>4</v>
-      </c>
-      <c r="G154" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B155" s="1">
-        <v>200</v>
-      </c>
-      <c r="C155" s="1">
-        <v>166.5</v>
-      </c>
-      <c r="D155" s="1">
-        <v>21</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F155" s="1">
-        <v>4</v>
-      </c>
-      <c r="G155" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>71934</v>
-      </c>
-      <c r="B156" s="1">
-        <v>230</v>
-      </c>
-      <c r="C156" s="1">
-        <v>170</v>
-      </c>
-      <c r="D156" s="1">
-        <v>28</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F156" s="1">
-        <v>4</v>
-      </c>
-      <c r="G156" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>7034</v>
-      </c>
-      <c r="B157" s="1">
-        <v>260</v>
-      </c>
-      <c r="C157" s="1">
-        <v>170</v>
-      </c>
-      <c r="D157" s="1">
-        <v>42</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F157" s="1">
-        <v>4</v>
-      </c>
-      <c r="G157" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B158" s="1">
-        <v>260</v>
-      </c>
-      <c r="C158" s="1">
-        <v>170</v>
-      </c>
-      <c r="D158" s="1">
-        <v>67</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F158" s="1">
-        <v>4</v>
-      </c>
-      <c r="G158" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B159" s="1">
-        <v>210</v>
-      </c>
-      <c r="C159" s="1">
-        <v>176.5</v>
-      </c>
-      <c r="D159" s="1">
-        <v>21</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F159" s="1">
-        <v>4</v>
-      </c>
-      <c r="G159" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>71936</v>
-      </c>
-      <c r="B160" s="1">
-        <v>250</v>
-      </c>
-      <c r="C160" s="1">
-        <v>180</v>
-      </c>
-      <c r="D160" s="1">
-        <v>33</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F160" s="1">
-        <v>4</v>
-      </c>
-      <c r="G160" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>7036</v>
-      </c>
-      <c r="B161" s="1">
-        <v>280</v>
-      </c>
-      <c r="C161" s="1">
-        <v>180</v>
-      </c>
-      <c r="D161" s="1">
-        <v>46</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F161" s="1">
-        <v>4</v>
-      </c>
-      <c r="G161" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B162" s="1">
-        <v>280</v>
-      </c>
-      <c r="C162" s="1">
-        <v>180</v>
-      </c>
-      <c r="D162" s="1">
-        <v>45</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F162" s="1">
-        <v>5</v>
-      </c>
-      <c r="G162" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B163" s="1">
-        <v>280</v>
-      </c>
-      <c r="C163" s="1">
-        <v>180</v>
-      </c>
-      <c r="D163" s="1">
-        <v>74</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F163" s="1">
-        <v>4</v>
-      </c>
-      <c r="G163" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B164" s="1">
-        <v>225</v>
-      </c>
-      <c r="C164" s="1">
-        <v>188.9</v>
-      </c>
-      <c r="D164" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F164" s="1">
-        <v>4</v>
-      </c>
-      <c r="G164" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
-        <v>71938</v>
-      </c>
-      <c r="B165" s="1">
-        <v>260</v>
-      </c>
-      <c r="C165" s="1">
-        <v>190</v>
-      </c>
-      <c r="D165" s="1">
-        <v>33</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F165" s="1">
-        <v>5</v>
-      </c>
-      <c r="G165" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
-        <v>7038</v>
-      </c>
-      <c r="B166" s="1">
-        <v>290</v>
-      </c>
-      <c r="C166" s="1">
-        <v>190</v>
-      </c>
-      <c r="D166" s="1">
-        <v>46</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F166" s="1">
-        <v>5</v>
-      </c>
-      <c r="G166" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B167" s="1">
-        <v>290</v>
-      </c>
-      <c r="C167" s="1">
-        <v>190</v>
-      </c>
-      <c r="D167" s="1">
-        <v>75</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F167" s="1">
-        <v>5</v>
-      </c>
-      <c r="G167" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
-        <v>71940</v>
-      </c>
-      <c r="B168" s="1">
-        <v>280</v>
-      </c>
-      <c r="C168" s="1">
-        <v>200</v>
-      </c>
-      <c r="D168" s="1">
-        <v>38</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F168" s="1">
-        <v>5</v>
-      </c>
-      <c r="G168" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
-        <v>7040</v>
-      </c>
-      <c r="B169" s="1">
-        <v>310</v>
-      </c>
-      <c r="C169" s="1">
-        <v>200</v>
-      </c>
-      <c r="D169" s="1">
-        <v>51</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F169" s="1">
-        <v>5</v>
-      </c>
-      <c r="G169" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B170" s="1">
-        <v>310</v>
-      </c>
-      <c r="C170" s="1">
-        <v>200</v>
-      </c>
-      <c r="D170" s="1">
-        <v>82</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F170" s="1">
-        <v>5</v>
-      </c>
-      <c r="G170" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B171" s="1">
-        <v>240</v>
-      </c>
-      <c r="C171" s="1">
-        <v>201.4</v>
-      </c>
-      <c r="D171" s="1">
-        <v>24</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F171" s="1">
-        <v>5</v>
-      </c>
-      <c r="G171" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B172" s="1">
-        <v>260</v>
-      </c>
-      <c r="C172" s="1">
-        <v>216.8</v>
-      </c>
-      <c r="D172" s="1">
-        <v>27</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F172" s="1">
-        <v>5</v>
-      </c>
-      <c r="G172" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
-        <v>71944</v>
-      </c>
-      <c r="B173" s="1">
-        <v>300</v>
-      </c>
-      <c r="C173" s="1">
-        <v>220</v>
-      </c>
-      <c r="D173" s="1">
-        <v>38</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F173" s="1">
-        <v>5</v>
-      </c>
-      <c r="G173" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
-        <v>7044</v>
-      </c>
-      <c r="B174" s="1">
-        <v>340</v>
-      </c>
-      <c r="C174" s="1">
-        <v>220</v>
-      </c>
-      <c r="D174" s="1">
-        <v>56</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F174" s="1">
-        <v>5</v>
-      </c>
-      <c r="G174" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B175" s="1">
-        <v>340</v>
-      </c>
-      <c r="C175" s="1">
-        <v>220</v>
-      </c>
-      <c r="D175" s="1">
-        <v>90</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F175" s="1">
-        <v>5</v>
-      </c>
-      <c r="G175" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B176" s="1">
-        <v>280</v>
-      </c>
-      <c r="C176" s="1">
-        <v>232.3</v>
-      </c>
-      <c r="D176" s="1">
-        <v>30</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F176" s="1">
-        <v>5</v>
-      </c>
-      <c r="G176" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
-        <v>71948</v>
-      </c>
-      <c r="B177" s="1">
-        <v>320</v>
-      </c>
-      <c r="C177" s="1">
-        <v>240</v>
-      </c>
-      <c r="D177" s="1">
-        <v>38</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F177" s="1">
-        <v>5</v>
-      </c>
-      <c r="G177" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>7048</v>
-      </c>
-      <c r="B178" s="1">
-        <v>360</v>
-      </c>
-      <c r="C178" s="1">
-        <v>240</v>
-      </c>
-      <c r="D178" s="1">
-        <v>56</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F178" s="1">
-        <v>5</v>
-      </c>
-      <c r="G178" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B179" s="1">
-        <v>360</v>
-      </c>
-      <c r="C179" s="1">
-        <v>240</v>
-      </c>
-      <c r="D179" s="1">
-        <v>92</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F179" s="1">
-        <v>5</v>
-      </c>
-      <c r="G179" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B180" s="1">
-        <v>290</v>
-      </c>
-      <c r="C180" s="1">
-        <v>242.3</v>
-      </c>
-      <c r="D180" s="1">
-        <v>30</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F180" s="1">
-        <v>5</v>
-      </c>
-      <c r="G180" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B181" s="1">
-        <v>310</v>
-      </c>
-      <c r="C181" s="1">
-        <v>257.2</v>
-      </c>
-      <c r="D181" s="1">
-        <v>33</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F181" s="1">
-        <v>5</v>
-      </c>
-      <c r="G181" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>71952</v>
-      </c>
-      <c r="B182" s="1">
-        <v>360</v>
-      </c>
-      <c r="C182" s="1">
-        <v>260</v>
-      </c>
-      <c r="D182" s="1">
-        <v>46</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F182" s="1">
-        <v>5</v>
-      </c>
-      <c r="G182" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>7052</v>
-      </c>
-      <c r="B183" s="1">
-        <v>400</v>
-      </c>
-      <c r="C183" s="1">
-        <v>260</v>
-      </c>
-      <c r="D183" s="1">
-        <v>65</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F183" s="1">
-        <v>5</v>
-      </c>
-      <c r="G183" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B184" s="1">
-        <v>400</v>
-      </c>
-      <c r="C184" s="1">
-        <v>260</v>
-      </c>
-      <c r="D184" s="1">
-        <v>104</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F184" s="1">
-        <v>5</v>
-      </c>
-      <c r="G184" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>71956</v>
-      </c>
-      <c r="B185" s="1">
-        <v>380</v>
-      </c>
-      <c r="C185" s="1">
-        <v>280</v>
-      </c>
-      <c r="D185" s="1">
-        <v>46</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F185" s="1">
-        <v>5</v>
-      </c>
-      <c r="G185" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B186" s="1">
-        <v>420</v>
-      </c>
-      <c r="C186" s="1">
-        <v>280</v>
-      </c>
-      <c r="D186" s="1">
-        <v>106</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F186" s="1">
-        <v>6</v>
-      </c>
-      <c r="G186" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>71960</v>
-      </c>
-      <c r="B187" s="1">
-        <v>420</v>
-      </c>
-      <c r="C187" s="1">
-        <v>300</v>
-      </c>
-      <c r="D187" s="1">
-        <v>56</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F187" s="1">
-        <v>5</v>
-      </c>
-      <c r="G187" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>7060</v>
-      </c>
-      <c r="B188" s="1">
-        <v>460</v>
-      </c>
-      <c r="C188" s="1">
-        <v>300</v>
-      </c>
-      <c r="D188" s="1">
-        <v>74</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F188" s="1">
-        <v>5</v>
-      </c>
-      <c r="G188" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>71964</v>
-      </c>
-      <c r="B189" s="1">
-        <v>440</v>
-      </c>
-      <c r="C189" s="1">
-        <v>320</v>
-      </c>
-      <c r="D189" s="1">
-        <v>56</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F189" s="1">
-        <v>5</v>
-      </c>
-      <c r="G189" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>71968</v>
-      </c>
-      <c r="B190" s="1">
-        <v>460</v>
-      </c>
-      <c r="C190" s="1">
-        <v>340</v>
-      </c>
-      <c r="D190" s="1">
-        <v>56</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F190" s="1">
-        <v>5</v>
-      </c>
-      <c r="G190" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
-        <v>71972</v>
-      </c>
-      <c r="B191" s="1">
-        <v>480</v>
-      </c>
-      <c r="C191" s="1">
-        <v>360</v>
-      </c>
-      <c r="D191" s="1">
-        <v>56</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="F191" s="1">
-        <v>5</v>
-      </c>
-      <c r="G191" s="1">
-        <v>3.5</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G192" xr:uid="{AC6FCF60-68CD-41E8-8FDD-1F7B1A76B187}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D195">
-    <sortCondition descending="1" ref="B1:B195"/>
+  <autoFilter ref="A1:H193" xr:uid="{AC6FCF60-68CD-41E8-8FDD-1F7B1A76B187}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E196">
+    <sortCondition descending="1" ref="C1:C196"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20362,7 +19707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F03F58-58E9-4867-B641-241DF7FAFEDA}">
   <dimension ref="A1:Z177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
@@ -34538,7 +33883,7 @@
   <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A4" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35535,6 +34880,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A191" xr:uid="{32FF3792-4D75-490C-98B4-A4A20D1061A3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
